--- a/cfg/schema/test_game_system.xlsx
+++ b/cfg/schema/test_game_system.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26330"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="24435" windowHeight="9600" tabRatio="943"/>
+    <workbookView xWindow="5460" yWindow="900" windowWidth="31540" windowHeight="17660" tabRatio="943"/>
   </bookViews>
   <sheets>
     <sheet name="Domain" sheetId="2" r:id="rId1"/>
@@ -23,13 +23,19 @@
     <sheet name="T_EVENT_REWARD" sheetId="23" r:id="rId14"/>
     <sheet name="T_EVENT_REWARD_DETAIL" sheetId="24" r:id="rId15"/>
     <sheet name="T_EVENT_LOCALIZATION" sheetId="25" r:id="rId16"/>
+    <sheet name="T_MON_SERVICE" sheetId="28" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="281">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1064,6 +1070,86 @@
   </si>
   <si>
     <t>서비스 구동 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hosts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>startDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MON_SERVICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1071,32 +1157,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1105,14 +1191,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1121,7 +1207,7 @@
       <u/>
       <sz val="9"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1129,7 +1215,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1177,7 +1269,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1212,11 +1304,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준 5" xfId="2"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1518,25 +1612,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
     <col min="2" max="2" width="10.5" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="18" style="6" customWidth="1"/>
-    <col min="6" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="33.125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="6" max="7" width="8.83203125" style="6"/>
+    <col min="8" max="8" width="33.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="12">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1562,7 +1656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="13.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>111</v>
       </c>
@@ -1580,7 +1674,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="11.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>111</v>
       </c>
@@ -1600,7 +1694,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="11.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>111</v>
       </c>
@@ -1620,7 +1714,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="11.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>112</v>
       </c>
@@ -1640,7 +1734,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="11.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>112</v>
       </c>
@@ -1660,7 +1754,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="13.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>111</v>
       </c>
@@ -1680,7 +1774,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="13.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>111</v>
       </c>
@@ -1698,7 +1792,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="13.5" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>111</v>
       </c>
@@ -1716,7 +1810,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="13.5" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>238</v>
       </c>
@@ -1734,7 +1828,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="12">
       <c r="A11" s="4" t="s">
         <v>239</v>
       </c>
@@ -1752,7 +1846,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="13.5" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>228</v>
       </c>
@@ -1768,7 +1862,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="13.5" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>161</v>
       </c>
@@ -1784,7 +1878,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="13.5" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>161</v>
       </c>
@@ -1802,7 +1896,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="13.5" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>161</v>
       </c>
@@ -1820,9 +1914,9 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>161</v>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>164</v>
@@ -1837,6 +1931,22 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1855,9 +1965,15 @@
     <hyperlink ref="C11" location="T_APP_GLOBAL!A1" display="T_APP_GLOBAL"/>
     <hyperlink ref="C8" location="T_APP_CLIENT!A1" display="T_APP_CLIENT"/>
     <hyperlink ref="C9" location="T_APP_PROPERTY!A1" display="T_APP_PROPERTY"/>
+    <hyperlink ref="C17" location="T_MON_SERVICE!A1" display="T_MON_SERVICE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1869,18 +1985,18 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="12">
       <c r="A2" s="3" t="s">
         <v>241</v>
       </c>
@@ -1920,7 +2036,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="12">
       <c r="A3" s="3" t="s">
         <v>244</v>
       </c>
@@ -1936,7 +2052,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>248</v>
       </c>
@@ -1952,7 +2068,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>252</v>
       </c>
@@ -1968,7 +2084,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>257</v>
       </c>
@@ -1984,7 +2100,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>254</v>
       </c>
@@ -2003,6 +2119,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2010,21 +2131,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="12">
       <c r="A2" s="3" t="s">
         <v>100</v>
       </c>
@@ -2058,7 +2177,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="12">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -2075,7 +2194,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="12">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
@@ -2090,7 +2209,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>95</v>
       </c>
@@ -2108,6 +2227,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2115,21 +2239,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="12">
       <c r="A2" s="3" t="s">
         <v>217</v>
       </c>
@@ -2163,7 +2285,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="12">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -2180,7 +2302,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="12">
       <c r="A4" s="3" t="s">
         <v>230</v>
       </c>
@@ -2195,7 +2317,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="12">
       <c r="A5" s="3" t="s">
         <v>219</v>
       </c>
@@ -2210,7 +2332,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2225,7 +2347,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>223</v>
       </c>
@@ -2243,7 +2365,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2251,20 +2378,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="46.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
@@ -2288,7 +2413,7 @@
       </c>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -2308,7 +2433,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14">
       <c r="A3" s="11" t="s">
         <v>146</v>
       </c>
@@ -2324,7 +2449,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14">
       <c r="A4" s="12" t="s">
         <v>95</v>
       </c>
@@ -2340,7 +2465,7 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14">
       <c r="A5" s="12" t="s">
         <v>52</v>
       </c>
@@ -2358,7 +2483,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -2376,7 +2501,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14">
       <c r="A7" s="11" t="s">
         <v>151</v>
       </c>
@@ -2394,7 +2519,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14">
       <c r="A8" s="12" t="s">
         <v>235</v>
       </c>
@@ -2410,7 +2535,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14">
       <c r="A9" s="12" t="s">
         <v>155</v>
       </c>
@@ -2426,7 +2551,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14">
       <c r="A10" s="12" t="s">
         <v>157</v>
       </c>
@@ -2442,7 +2567,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14">
       <c r="A11" s="12" t="s">
         <v>73</v>
       </c>
@@ -2458,7 +2583,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.25" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2467,7 +2592,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2476,7 +2601,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2485,7 +2610,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2494,7 +2619,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2503,7 +2628,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.25" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2512,7 +2637,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.25" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2521,7 +2646,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2530,7 +2655,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.25" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2539,7 +2664,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2548,7 +2673,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.25" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2557,7 +2682,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2566,7 +2691,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2575,7 +2700,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.25" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2584,7 +2709,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.25" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2593,7 +2718,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.25" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2602,7 +2727,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2611,7 +2736,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14.25" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2620,7 +2745,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="14.25" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2629,7 +2754,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14.25" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2641,6 +2766,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2652,14 +2782,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
@@ -2681,7 +2811,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14">
       <c r="A2" s="11" t="s">
         <v>184</v>
       </c>
@@ -2701,7 +2831,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14">
       <c r="A3" s="11" t="s">
         <v>236</v>
       </c>
@@ -2721,7 +2851,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14">
       <c r="A4" s="12" t="s">
         <v>191</v>
       </c>
@@ -2737,7 +2867,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14">
       <c r="A5" s="11" t="s">
         <v>193</v>
       </c>
@@ -2753,7 +2883,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2763,7 +2893,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -2773,7 +2903,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -2783,7 +2913,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2793,7 +2923,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
@@ -2803,7 +2933,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
@@ -2813,7 +2943,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.25" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2823,7 +2953,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2833,7 +2963,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2843,7 +2973,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2853,7 +2983,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2863,7 +2993,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.25" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2873,7 +3003,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.25" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2883,7 +3013,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2893,7 +3023,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.25" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2903,7 +3033,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2913,7 +3043,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.25" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2923,7 +3053,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2933,7 +3063,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2943,7 +3073,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.25" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2953,7 +3083,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.25" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2963,7 +3093,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.25" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2973,7 +3103,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2983,7 +3113,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14.25" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2996,6 +3126,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3003,21 +3138,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="34.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="46.125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
@@ -3037,7 +3172,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
         <v>184</v>
       </c>
@@ -3055,7 +3190,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
         <v>188</v>
       </c>
@@ -3073,7 +3208,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>196</v>
       </c>
@@ -3091,7 +3226,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
         <v>198</v>
       </c>
@@ -3107,7 +3242,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>200</v>
       </c>
@@ -3123,7 +3258,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>202</v>
       </c>
@@ -3139,18 +3274,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="F10" s="15"/>
@@ -3158,7 +3293,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3167,18 +3307,18 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="6" max="6" width="46.125" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
@@ -3198,7 +3338,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14">
       <c r="A2" s="11" t="s">
         <v>184</v>
       </c>
@@ -3216,7 +3356,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="11" t="s">
         <v>205</v>
       </c>
@@ -3234,7 +3374,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14">
       <c r="A4" s="12" t="s">
         <v>207</v>
       </c>
@@ -3252,7 +3392,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14">
       <c r="A5" s="11" t="s">
         <v>210</v>
       </c>
@@ -3268,7 +3408,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -3276,7 +3416,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -3284,7 +3424,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -3292,7 +3432,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
@@ -3300,7 +3440,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
@@ -3308,7 +3448,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3316,7 +3456,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3327,7 +3467,228 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14">
+      <c r="A2" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14">
+      <c r="A3" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14">
+      <c r="A4" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14">
+      <c r="A5" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14">
+      <c r="A6" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14">
+      <c r="A7" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14">
+      <c r="A8" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14">
+      <c r="A9" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14">
+      <c r="A10" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14">
+      <c r="A11" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3339,17 +3700,17 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3366,7 +3727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="12">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3383,7 +3744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="12">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -3398,7 +3759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="12">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -3413,7 +3774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
@@ -3431,7 +3792,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3443,17 +3809,17 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +3836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="12">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3487,7 +3853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -3504,7 +3870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>167</v>
       </c>
@@ -3519,7 +3885,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="12">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -3534,7 +3900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>168</v>
       </c>
@@ -3552,6 +3918,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3563,17 +3934,17 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3590,7 +3961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="12">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3607,7 +3978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -3624,7 +3995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
@@ -3641,7 +4012,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -3656,7 +4027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -3671,7 +4042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>83</v>
       </c>
@@ -3689,6 +4060,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3700,17 +4076,17 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="2" max="2" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3727,7 +4103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="12">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3744,7 +4120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>173</v>
       </c>
@@ -3761,7 +4137,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>179</v>
       </c>
@@ -3776,7 +4152,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>136</v>
       </c>
@@ -3794,6 +4170,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3805,17 +4186,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="2" max="2" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3832,7 +4213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="12">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3849,7 +4230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>121</v>
       </c>
@@ -3866,7 +4247,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>174</v>
       </c>
@@ -3883,7 +4264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>114</v>
       </c>
@@ -3898,7 +4279,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>175</v>
       </c>
@@ -3916,6 +4297,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3925,17 +4311,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3952,7 +4338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="12">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3969,7 +4355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>117</v>
       </c>
@@ -3986,7 +4372,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>133</v>
       </c>
@@ -4001,7 +4387,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>122</v>
       </c>
@@ -4019,7 +4405,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4031,17 +4422,17 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -4058,7 +4449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="12">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4075,7 +4466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -4092,7 +4483,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -4107,7 +4498,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
@@ -4122,7 +4513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -4137,7 +4528,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A7" s="3" t="s">
         <v>68</v>
       </c>
@@ -4152,7 +4543,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
@@ -4167,7 +4558,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="12">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -4180,7 +4571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -4198,7 +4589,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4210,17 +4606,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +4633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="12">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4254,7 +4650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="12">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -4271,7 +4667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="12">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -4288,7 +4684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="12">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -4306,5 +4702,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/cfg/schema/test_game_system.xlsx
+++ b/cfg/schema/test_game_system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26330"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="900" windowWidth="31540" windowHeight="17660" tabRatio="943"/>
+    <workbookView xWindow="3160" yWindow="560" windowWidth="31540" windowHeight="17660" tabRatio="943" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Domain" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="278">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1138,18 +1138,6 @@
   </si>
   <si>
     <t>DATETIME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MON_SERVICE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>service</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1157,7 +1145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1225,6 +1213,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1264,10 +1260,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1307,8 +1308,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준 5" xfId="2"/>
   </cellStyles>
@@ -1612,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1932,22 +1938,6 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1965,7 +1955,6 @@
     <hyperlink ref="C11" location="T_APP_GLOBAL!A1" display="T_APP_GLOBAL"/>
     <hyperlink ref="C8" location="T_APP_CLIENT!A1" display="T_APP_CLIENT"/>
     <hyperlink ref="C9" location="T_APP_PROPERTY!A1" display="T_APP_PROPERTY"/>
-    <hyperlink ref="C17" location="T_MON_SERVICE!A1" display="T_MON_SERVICE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3480,7 +3469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>

--- a/cfg/schema/test_game_system.xlsx
+++ b/cfg/schema/test_game_system.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26405"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="560" windowWidth="31540" windowHeight="17660" tabRatio="943" firstSheet="5" activeTab="16"/>
+    <workbookView xWindow="3160" yWindow="560" windowWidth="31540" windowHeight="17660" tabRatio="943" firstSheet="5" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Domain" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="T_EVENT_REWARD_DETAIL" sheetId="24" r:id="rId15"/>
     <sheet name="T_EVENT_LOCALIZATION" sheetId="25" r:id="rId16"/>
     <sheet name="T_MON_SERVICE" sheetId="28" r:id="rId17"/>
+    <sheet name="T_SERVICE_DEPLOYS" sheetId="29" r:id="rId18"/>
+    <sheet name="T_MSG_HOST" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="334">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1139,6 +1141,227 @@
   <si>
     <t>DATETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MON_SERVICE</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsNull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포 버전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태(1: 업로드, 2: 배포, 3: 적용, 9: 삭제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsNull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理群组ID 0-9 号机器为内部测试保留用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理机器hostname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(64)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部ip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(64)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标机器路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器状态 0:okay; 1:full; 2:out of service; 9:maintain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">物理 ID </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆机器账户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MSG_HOST</t>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SERVICE_DEPLOYS</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1493,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1307,6 +1530,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
@@ -1618,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1938,6 +2164,54 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1955,6 +2229,9 @@
     <hyperlink ref="C11" location="T_APP_GLOBAL!A1" display="T_APP_GLOBAL"/>
     <hyperlink ref="C8" location="T_APP_CLIENT!A1" display="T_APP_CLIENT"/>
     <hyperlink ref="C9" location="T_APP_PROPERTY!A1" display="T_APP_PROPERTY"/>
+    <hyperlink ref="C17" location="T_MON_SERVICE!A1" display="T_MON_SERVICE"/>
+    <hyperlink ref="C18" location="T_SERVICE_DEPLOYS!A1" display="T_SERVICE_DEPLOYS"/>
+    <hyperlink ref="C19" location="T_MSG_HOST!A1" display="T_MSG_HOST"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3295,9 +3572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -3469,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -3675,6 +3950,369 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="43.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4594,7 +5232,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>

--- a/cfg/schema/test_game_system.xlsx
+++ b/cfg/schema/test_game_system.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="560" windowWidth="31540" windowHeight="17660" tabRatio="943" firstSheet="5" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="943" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Domain" sheetId="2" r:id="rId1"/>
     <sheet name="T_APP_BASE" sheetId="1" r:id="rId2"/>
     <sheet name="T_APP_DATA" sheetId="16" r:id="rId3"/>
     <sheet name="T_APP_DATA_VERSION" sheetId="17" r:id="rId4"/>
-    <sheet name="T_APP_DATA_GROUP" sheetId="20" r:id="rId5"/>
-    <sheet name="T_APP_DATA_GROUP_DETAIL" sheetId="21" r:id="rId6"/>
-    <sheet name="T_APP_CLIENT" sheetId="14" r:id="rId7"/>
-    <sheet name="T_APP_SERVER" sheetId="11" r:id="rId8"/>
-    <sheet name="T_APP_PROPERTY" sheetId="7" r:id="rId9"/>
-    <sheet name="T_APP_REGISTER" sheetId="27" r:id="rId10"/>
-    <sheet name="T_APP_GLOBAL" sheetId="13" r:id="rId11"/>
-    <sheet name="T_SERVICE_DEPLOY" sheetId="6" r:id="rId12"/>
-    <sheet name="T_EVENT" sheetId="22" r:id="rId13"/>
-    <sheet name="T_EVENT_REWARD" sheetId="23" r:id="rId14"/>
-    <sheet name="T_EVENT_REWARD_DETAIL" sheetId="24" r:id="rId15"/>
-    <sheet name="T_EVENT_LOCALIZATION" sheetId="25" r:id="rId16"/>
-    <sheet name="T_MON_SERVICE" sheetId="28" r:id="rId17"/>
-    <sheet name="T_SERVICE_DEPLOYS" sheetId="29" r:id="rId18"/>
-    <sheet name="T_MSG_HOST" sheetId="30" r:id="rId19"/>
+    <sheet name="T_APP_DATA_VERSION_LIST" sheetId="31" r:id="rId5"/>
+    <sheet name="T_APP_DATA_GROUP" sheetId="20" r:id="rId6"/>
+    <sheet name="T_APP_DATA_GROUP_DETAIL" sheetId="21" r:id="rId7"/>
+    <sheet name="T_APP_CLIENT" sheetId="14" r:id="rId8"/>
+    <sheet name="T_APP_SERVER" sheetId="11" r:id="rId9"/>
+    <sheet name="T_APP_PROPERTY" sheetId="7" r:id="rId10"/>
+    <sheet name="T_APP_REGISTER" sheetId="27" r:id="rId11"/>
+    <sheet name="T_APP_GLOBAL" sheetId="13" r:id="rId12"/>
+    <sheet name="T_SERVICE_DEPLOY" sheetId="6" r:id="rId13"/>
+    <sheet name="T_EVENT" sheetId="22" r:id="rId14"/>
+    <sheet name="T_EVENT_REWARD" sheetId="23" r:id="rId15"/>
+    <sheet name="T_EVENT_REWARD_DETAIL" sheetId="24" r:id="rId16"/>
+    <sheet name="T_EVENT_LOCALIZATION" sheetId="25" r:id="rId17"/>
+    <sheet name="T_MON_SERVICE" sheetId="28" r:id="rId18"/>
+    <sheet name="T_SERVICE_DEPLOYS" sheetId="29" r:id="rId19"/>
+    <sheet name="T_MSG_HOST" sheetId="30" r:id="rId20"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="340">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1362,6 +1363,24 @@
   </si>
   <si>
     <t>T_SERVICE_DEPLOYS</t>
+  </si>
+  <si>
+    <t>T_APP_DATA_VERSION_LIST</t>
+  </si>
+  <si>
+    <t>versionList</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>not</t>
   </si>
 </sst>
 </file>
@@ -1372,28 +1391,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1402,14 +1421,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1418,7 +1437,7 @@
       <u/>
       <sz val="9"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1426,13 +1445,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1440,7 +1459,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1483,10 +1502,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1534,14 +1556,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1844,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1948,62 +1973,60 @@
     </row>
     <row r="5" spans="1:8" ht="11.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>172</v>
+        <v>334</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="11.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>124</v>
+        <v>172</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="11.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1">
@@ -2011,17 +2034,19 @@
         <v>111</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5" customHeight="1">
@@ -2029,80 +2054,82 @@
         <v>111</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="13.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12">
       <c r="A12" s="4" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2115,14 +2142,12 @@
         <v>161</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2133,13 +2158,13 @@
         <v>161</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2147,17 +2172,17 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>261</v>
+      <c r="A16" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2166,15 +2191,17 @@
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>261</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2182,13 +2209,13 @@
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2198,13 +2225,13 @@
     </row>
     <row r="19" spans="1:8" ht="13.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2212,26 +2239,42 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" location="T_APP_DATA!A1" display="T_APP_DATA"/>
     <hyperlink ref="C4" location="T_APP_DATA_VERSION!A1" display="T_APP_DATA_VERSION"/>
-    <hyperlink ref="C5" location="T_APP_DATA_GROUP!A1" display="T_APP_DATA_GROUP"/>
-    <hyperlink ref="C6" location="T_APP_DATA_GROUP_DETAIL!A1" display="T_APP_DATA_GROUP_DETAIL"/>
-    <hyperlink ref="C7" location="T_APP_CLIENT!A1" display="T_APP_CLIENT"/>
-    <hyperlink ref="C13" location="T_EVENT!A1" display="T_EVENT_MAIN"/>
-    <hyperlink ref="C14" location="T_EVENT_REWARD!A1" display="T_EVENT_REWARD"/>
-    <hyperlink ref="C15" location="T_EVENT_REWARDS_DETAIL!A1" display="T_EVENT_REWARDS_DETAIL"/>
-    <hyperlink ref="C16" location="T_EVENT_LOCALIZATION!A1" display="T_EVENT_LOCALIZATION"/>
+    <hyperlink ref="C6" location="T_APP_DATA_GROUP!A1" display="T_APP_DATA_GROUP"/>
+    <hyperlink ref="C7" location="T_APP_DATA_GROUP_DETAIL!A1" display="T_APP_DATA_GROUP_DETAIL"/>
+    <hyperlink ref="C8" location="T_APP_CLIENT!A1" display="T_APP_CLIENT"/>
+    <hyperlink ref="C14" location="T_EVENT!A1" display="T_EVENT_MAIN"/>
+    <hyperlink ref="C15" location="T_EVENT_REWARD!A1" display="T_EVENT_REWARD"/>
+    <hyperlink ref="C16" location="T_EVENT_REWARDS_DETAIL!A1" display="T_EVENT_REWARDS_DETAIL"/>
+    <hyperlink ref="C17" location="T_EVENT_LOCALIZATION!A1" display="T_EVENT_LOCALIZATION"/>
     <hyperlink ref="C2" location="T_APP_BASE!A1" display="T_APP_BASE"/>
-    <hyperlink ref="C12" location="T_SERVICE_DEPLOY!A1" display="T_SERVICE_DEPLOY"/>
-    <hyperlink ref="C11" location="T_APP_GLOBAL!A1" display="T_APP_GLOBAL"/>
-    <hyperlink ref="C8" location="T_APP_CLIENT!A1" display="T_APP_CLIENT"/>
-    <hyperlink ref="C9" location="T_APP_PROPERTY!A1" display="T_APP_PROPERTY"/>
-    <hyperlink ref="C17" location="T_MON_SERVICE!A1" display="T_MON_SERVICE"/>
-    <hyperlink ref="C18" location="T_SERVICE_DEPLOYS!A1" display="T_SERVICE_DEPLOYS"/>
-    <hyperlink ref="C19" location="T_MSG_HOST!A1" display="T_MSG_HOST"/>
+    <hyperlink ref="C13" location="T_SERVICE_DEPLOY!A1" display="T_SERVICE_DEPLOY"/>
+    <hyperlink ref="C12" location="T_APP_GLOBAL!A1" display="T_APP_GLOBAL"/>
+    <hyperlink ref="C9" location="T_APP_CLIENT!A1" display="T_APP_CLIENT"/>
+    <hyperlink ref="C10" location="T_APP_PROPERTY!A1" display="T_APP_PROPERTY"/>
+    <hyperlink ref="C18" location="T_MON_SERVICE!A1" display="T_MON_SERVICE"/>
+    <hyperlink ref="C19" location="T_SERVICE_DEPLOYS!A1" display="T_SERVICE_DEPLOYS"/>
+    <hyperlink ref="C20" location="T_MSG_HOST!A1" display="T_MSG_HOST"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2244,6 +2287,118 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2393,7 +2548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2501,7 +2656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -2631,7 +2786,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2640,7 +2794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -3040,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -3400,7 +3554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -3559,7 +3713,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3568,7 +3721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -3731,7 +3884,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3740,7 +3892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -3949,194 +4101,6 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4150,162 +4114,172 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="D2" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>325</v>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="17" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>311</v>
+        <v>50</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="17" t="s">
-        <v>326</v>
+      <c r="F4" s="12" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>314</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="16" t="s">
-        <v>315</v>
+        <v>68</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>317</v>
+        <v>49</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>318</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="16" t="s">
-        <v>319</v>
+        <v>71</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>320</v>
+        <v>88</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>297</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>321</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="16" t="s">
-        <v>322</v>
+        <v>66</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>297</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>296</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -4421,7 +4395,182 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="43.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4560,7 +4709,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -4689,6 +4838,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4698,6 +4848,80 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -4807,7 +5031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4934,7 +5158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -5034,7 +5258,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5043,7 +5266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5218,119 +5441,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12">
-      <c r="A5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/cfg/schema/test_game_system.xlsx
+++ b/cfg/schema/test_game_system.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26423"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="943" activeTab="4"/>
+    <workbookView xWindow="7860" yWindow="2400" windowWidth="25600" windowHeight="16060" tabRatio="943" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Domain" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="342">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1381,6 +1381,14 @@
   </si>
   <si>
     <t>not</t>
+  </si>
+  <si>
+    <t>excel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1391,28 +1399,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1421,14 +1429,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1437,7 +1445,7 @@
       <u/>
       <sz val="9"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1445,13 +1453,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1459,7 +1467,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1502,10 +1510,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1556,17 +1568,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="15">
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4408,7 +4424,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4583,8 +4599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -4658,7 +4674,9 @@
       <c r="C4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>85</v>
       </c>
@@ -4696,6 +4714,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4706,10 +4725,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -4775,63 +4794,80 @@
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>341</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4851,7 +4887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4911,6 +4947,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5033,10 +5070,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -5119,31 +5156,48 @@
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>178</v>
       </c>
     </row>

--- a/cfg/schema/test_game_system.xlsx
+++ b/cfg/schema/test_game_system.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="2400" windowWidth="25600" windowHeight="16060" tabRatio="943" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="943" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Domain" sheetId="2" r:id="rId1"/>
     <sheet name="T_APP_BASE" sheetId="1" r:id="rId2"/>
     <sheet name="T_APP_DATA" sheetId="16" r:id="rId3"/>
-    <sheet name="T_APP_DATA_VERSION" sheetId="17" r:id="rId4"/>
-    <sheet name="T_APP_DATA_VERSION_LIST" sheetId="31" r:id="rId5"/>
-    <sheet name="T_APP_DATA_GROUP" sheetId="20" r:id="rId6"/>
-    <sheet name="T_APP_DATA_GROUP_DETAIL" sheetId="21" r:id="rId7"/>
-    <sheet name="T_APP_CLIENT" sheetId="14" r:id="rId8"/>
-    <sheet name="T_APP_SERVER" sheetId="11" r:id="rId9"/>
-    <sheet name="T_APP_PROPERTY" sheetId="7" r:id="rId10"/>
-    <sheet name="T_APP_REGISTER" sheetId="27" r:id="rId11"/>
-    <sheet name="T_APP_GLOBAL" sheetId="13" r:id="rId12"/>
-    <sheet name="T_SERVICE_DEPLOY" sheetId="6" r:id="rId13"/>
-    <sheet name="T_EVENT" sheetId="22" r:id="rId14"/>
-    <sheet name="T_EVENT_REWARD" sheetId="23" r:id="rId15"/>
-    <sheet name="T_EVENT_REWARD_DETAIL" sheetId="24" r:id="rId16"/>
-    <sheet name="T_EVENT_LOCALIZATION" sheetId="25" r:id="rId17"/>
-    <sheet name="T_MON_SERVICE" sheetId="28" r:id="rId18"/>
-    <sheet name="T_SERVICE_DEPLOYS" sheetId="29" r:id="rId19"/>
-    <sheet name="T_MSG_HOST" sheetId="30" r:id="rId20"/>
+    <sheet name="T_APP_DATA_FILE_VERSION" sheetId="32" r:id="rId4"/>
+    <sheet name="T_APP_DATA_VERSION" sheetId="17" r:id="rId5"/>
+    <sheet name="T_APP_DATA_VERSION_LIST" sheetId="31" r:id="rId6"/>
+    <sheet name="T_APP_DATA_GROUP" sheetId="20" r:id="rId7"/>
+    <sheet name="T_APP_DATA_GROUP_DETAIL" sheetId="21" r:id="rId8"/>
+    <sheet name="T_APP_CLIENT" sheetId="14" r:id="rId9"/>
+    <sheet name="T_APP_SERVER" sheetId="11" r:id="rId10"/>
+    <sheet name="T_APP_PROPERTY" sheetId="7" r:id="rId11"/>
+    <sheet name="T_APP_REGISTER" sheetId="27" r:id="rId12"/>
+    <sheet name="T_APP_GLOBAL" sheetId="13" r:id="rId13"/>
+    <sheet name="T_SERVICE_DEPLOY" sheetId="6" r:id="rId14"/>
+    <sheet name="T_EVENT" sheetId="22" r:id="rId15"/>
+    <sheet name="T_EVENT_REWARD" sheetId="23" r:id="rId16"/>
+    <sheet name="T_EVENT_REWARD_DETAIL" sheetId="24" r:id="rId17"/>
+    <sheet name="T_EVENT_LOCALIZATION" sheetId="25" r:id="rId18"/>
+    <sheet name="T_MON_SERVICE" sheetId="28" r:id="rId19"/>
+    <sheet name="T_SERVICE_DEPLOYS" sheetId="29" r:id="rId20"/>
+    <sheet name="T_MSG_HOST" sheetId="30" r:id="rId21"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="344">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1389,6 +1390,12 @@
   <si>
     <t>not</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>T_APP_DATA_FILE_VERSION</t>
   </si>
 </sst>
 </file>
@@ -1399,28 +1406,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1429,14 +1436,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1445,7 +1452,7 @@
       <u/>
       <sz val="9"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1453,13 +1460,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1467,7 +1474,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1510,10 +1517,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1568,21 +1578,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="18">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1885,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1971,98 +1984,94 @@
       <c r="A4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>106</v>
+      <c r="B4" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="11.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>335</v>
+      <c r="B5" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>334</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="11.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>172</v>
+        <v>334</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="11.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>124</v>
+        <v>172</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="11.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5" customHeight="1">
@@ -2070,17 +2079,19 @@
         <v>111</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.5" customHeight="1">
@@ -2088,80 +2099,82 @@
         <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="13.5" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="12">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12">
       <c r="A13" s="4" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="13.5" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2174,14 +2187,12 @@
         <v>161</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2192,13 +2203,13 @@
         <v>161</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2206,17 +2217,17 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>261</v>
+      <c r="A17" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2225,15 +2236,17 @@
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>261</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2241,13 +2254,13 @@
     </row>
     <row r="19" spans="1:8" ht="13.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2257,13 +2270,13 @@
     </row>
     <row r="20" spans="1:8" ht="13.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2271,26 +2284,42 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" location="T_APP_DATA!A1" display="T_APP_DATA"/>
-    <hyperlink ref="C4" location="T_APP_DATA_VERSION!A1" display="T_APP_DATA_VERSION"/>
-    <hyperlink ref="C6" location="T_APP_DATA_GROUP!A1" display="T_APP_DATA_GROUP"/>
-    <hyperlink ref="C7" location="T_APP_DATA_GROUP_DETAIL!A1" display="T_APP_DATA_GROUP_DETAIL"/>
-    <hyperlink ref="C8" location="T_APP_CLIENT!A1" display="T_APP_CLIENT"/>
-    <hyperlink ref="C14" location="T_EVENT!A1" display="T_EVENT_MAIN"/>
-    <hyperlink ref="C15" location="T_EVENT_REWARD!A1" display="T_EVENT_REWARD"/>
-    <hyperlink ref="C16" location="T_EVENT_REWARDS_DETAIL!A1" display="T_EVENT_REWARDS_DETAIL"/>
-    <hyperlink ref="C17" location="T_EVENT_LOCALIZATION!A1" display="T_EVENT_LOCALIZATION"/>
+    <hyperlink ref="C5" location="T_APP_DATA_VERSION!A1" display="T_APP_DATA_VERSION"/>
+    <hyperlink ref="C7" location="T_APP_DATA_GROUP!A1" display="T_APP_DATA_GROUP"/>
+    <hyperlink ref="C8" location="T_APP_DATA_GROUP_DETAIL!A1" display="T_APP_DATA_GROUP_DETAIL"/>
+    <hyperlink ref="C9" location="T_APP_CLIENT!A1" display="T_APP_CLIENT"/>
+    <hyperlink ref="C15" location="T_EVENT!A1" display="T_EVENT_MAIN"/>
+    <hyperlink ref="C16" location="T_EVENT_REWARD!A1" display="T_EVENT_REWARD"/>
+    <hyperlink ref="C17" location="T_EVENT_REWARDS_DETAIL!A1" display="T_EVENT_REWARDS_DETAIL"/>
+    <hyperlink ref="C18" location="T_EVENT_LOCALIZATION!A1" display="T_EVENT_LOCALIZATION"/>
     <hyperlink ref="C2" location="T_APP_BASE!A1" display="T_APP_BASE"/>
-    <hyperlink ref="C13" location="T_SERVICE_DEPLOY!A1" display="T_SERVICE_DEPLOY"/>
-    <hyperlink ref="C12" location="T_APP_GLOBAL!A1" display="T_APP_GLOBAL"/>
-    <hyperlink ref="C9" location="T_APP_CLIENT!A1" display="T_APP_CLIENT"/>
-    <hyperlink ref="C10" location="T_APP_PROPERTY!A1" display="T_APP_PROPERTY"/>
-    <hyperlink ref="C18" location="T_MON_SERVICE!A1" display="T_MON_SERVICE"/>
-    <hyperlink ref="C19" location="T_SERVICE_DEPLOYS!A1" display="T_SERVICE_DEPLOYS"/>
-    <hyperlink ref="C20" location="T_MSG_HOST!A1" display="T_MSG_HOST"/>
+    <hyperlink ref="C14" location="T_SERVICE_DEPLOY!A1" display="T_SERVICE_DEPLOY"/>
+    <hyperlink ref="C13" location="T_APP_GLOBAL!A1" display="T_APP_GLOBAL"/>
+    <hyperlink ref="C10" location="T_APP_CLIENT!A1" display="T_APP_CLIENT"/>
+    <hyperlink ref="C11" location="T_APP_PROPERTY!A1" display="T_APP_PROPERTY"/>
+    <hyperlink ref="C19" location="T_MON_SERVICE!A1" display="T_MON_SERVICE"/>
+    <hyperlink ref="C20" location="T_SERVICE_DEPLOYS!A1" display="T_SERVICE_DEPLOYS"/>
+    <hyperlink ref="C21" location="T_MSG_HOST!A1" display="T_MSG_HOST"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2303,6 +2332,189 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2414,7 +2626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2564,7 +2776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2672,7 +2884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -2810,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -3210,7 +3422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -3570,7 +3782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -3737,7 +3949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -3908,7 +4120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -4116,192 +4328,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4424,6 +4450,192 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -4599,7 +4811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -4714,7 +4926,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4725,10 +4936,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -4794,6 +5005,132 @@
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4883,7 +5220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4949,7 +5286,6 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4958,7 +5294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -5068,7 +5404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -5212,7 +5548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -5318,187 +5654,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12">
-      <c r="A9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/cfg/schema/test_game_system.xlsx
+++ b/cfg/schema/test_game_system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="943" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="943"/>
   </bookViews>
   <sheets>
     <sheet name="Domain" sheetId="2" r:id="rId1"/>
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1987,7 +1987,7 @@
       <c r="B4" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="18" t="s">
         <v>343</v>
       </c>
       <c r="D4" s="4"/>
@@ -2320,9 +2320,9 @@
     <hyperlink ref="C19" location="T_MON_SERVICE!A1" display="T_MON_SERVICE"/>
     <hyperlink ref="C20" location="T_SERVICE_DEPLOYS!A1" display="T_SERVICE_DEPLOYS"/>
     <hyperlink ref="C21" location="T_MSG_HOST!A1" display="T_MSG_HOST"/>
+    <hyperlink ref="C4" location="T_APP_DATA_FILE_VERSION!A1" display="T_APP_DATA_FILE_VERSION"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4938,7 +4938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5211,7 +5211,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/cfg/schema/test_game_system.xlsx
+++ b/cfg/schema/test_game_system.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26423"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="943"/>
+    <workbookView xWindow="6180" yWindow="1140" windowWidth="29660" windowHeight="18340" tabRatio="943" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Domain" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="348">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1396,6 +1396,22 @@
   </si>
   <si>
     <t>T_APP_DATA_FILE_VERSION</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>not</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1406,28 +1422,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1436,14 +1452,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1452,7 +1468,7 @@
       <u/>
       <sz val="9"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1460,13 +1476,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1474,7 +1490,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1517,10 +1533,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1578,24 +1595,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="19">
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1900,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2631,7 +2649,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -4125,7 +4143,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="A1:G18"/>
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -5051,6 +5069,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5065,7 +5084,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -5221,15 +5240,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="12">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5243,48 +5262,66 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>339</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5298,7 +5335,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
